--- a/pred_ohlcv/54_21/2020-01-23 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 STEEM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>254060.737701</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>254060.737701</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>251832.367701</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>251835.367701</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>251649.987701</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>251649.987701</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>249880.0083010001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>249880.0083010001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>254789.1049010001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -808,7 +808,7 @@
         <v>236007.3613010001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>234504.3613010001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>228854.2307010001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>228857.2307010001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>227862.2317010001</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-15905.17119899998</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-18201.24089899998</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-17519.24089899998</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-17519.24089899998</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-18139.11209899998</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-18139.11209899998</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-14059.11209899998</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-16224.31939899998</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>13836.47270100002</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-13260.04189899998</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-38121.25741307998</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-9721.100213079975</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-10246.42521307997</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-10816.50721307997</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-9276.507213079974</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-9276.507213079974</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-1084.584813079973</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-1087.124813079973</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>4460.892286920027</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 STEEM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>254060.737701</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>254060.737701</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>251832.367701</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>251835.367701</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>251649.987701</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>251649.987701</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>244461.715901</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>249889.0483010001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>249880.0083010001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>249880.0083010001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -808,7 +808,7 @@
         <v>236007.3613010001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>234504.3613010001</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>228854.2307010001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>228857.2307010001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-18201.24089899998</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-17519.24089899998</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-17519.24089899998</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-14056.51209899998</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-16224.31939899998</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>13836.47270100002</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-10816.50721307997</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-9276.507213079974</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-9271.371013079974</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-6584.584813079973</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-1084.584813079973</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-1087.124813079973</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-1084.610813079973</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-3955.140513079973</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>4460.892286920027</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
